--- a/resource/主角/统御表.xlsx
+++ b/resource/主角/统御表.xlsx
@@ -1,35 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="22200" windowHeight="12340"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Rule" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>统御等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>升级消耗物品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加每格带兵量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -39,14 +34,54 @@
   </si>
   <si>
     <t>升级需求主角等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume_goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,7 +126,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -174,7 +209,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="7DC752"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -450,226 +485,234 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0.9</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>0.8</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>0.6</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>0.9</v>
-      </c>
-      <c r="F4">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>0.4</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>0.8</v>
-      </c>
-      <c r="F5">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>0.3</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>0.2</v>
+      </c>
+      <c r="E13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>0.7</v>
-      </c>
-      <c r="F6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>0.6</v>
-      </c>
-      <c r="F7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>0.5</v>
-      </c>
-      <c r="F8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>0.4</v>
-      </c>
-      <c r="F9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>0.3</v>
-      </c>
-      <c r="F10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>0.2</v>
-      </c>
-      <c r="F11">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
+      <c r="B14">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="E12">
+      <c r="D14">
         <v>0.1</v>
       </c>
-      <c r="F12">
+      <c r="E14">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>